--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5508aef12f95d5d6/Documentos/GitHub/Evidencia-Estructura-de-datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B598E4753D3D89D199A6ED35242E8F546D9F457" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28B33151-0F8F-431A-BA7C-DE1135AD10BB}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="816" yWindow="2160" windowWidth="6264" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>SUSTAITA</t>
+  </si>
+  <si>
+    <t>LISSET</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>BANDA</t>
+  </si>
+  <si>
+    <t>IAN</t>
+  </si>
+  <si>
+    <t>PORTALES</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>TREVIÑO</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>IRUNGARAY</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>DANA</t>
+  </si>
+  <si>
+    <t>COLUNGA</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,82 +132,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,247 +437,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Clave</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Apellidos</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nombres</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>JESUS</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8110785612</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GARCIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EDUARDO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8145237954</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SUSTAITA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LISSET</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8110786646</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CRUZ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8110465523</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BANDA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>IAN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8100467945</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="D2" s="2">
+        <v>8110785612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PORTALES</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8110462398</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TREVIÑO</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8110457856</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="D3" s="2">
+        <v>8145237954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>IRUNGARAY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ANGEL</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8110564233</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CASTRO</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DANA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8175426698</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="D4" s="2">
+        <v>8110786646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>COLUNGA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>JORGE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8145796652</t>
-        </is>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8110465523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8100467945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8110462398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8110457856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8110564233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8175426698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8145796652</v>
       </c>
     </row>
   </sheetData>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -1,120 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5508aef12f95d5d6/Documentos/GitHub/Evidencia-Estructura-de-datos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B598E4753D3D89D199A6ED35242E8F546D9F457" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28B33151-0F8F-431A-BA7C-DE1135AD10BB}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="2160" windowWidth="6264" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Clave</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>SUSTAITA</t>
-  </si>
-  <si>
-    <t>LISSET</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>BANDA</t>
-  </si>
-  <si>
-    <t>IAN</t>
-  </si>
-  <si>
-    <t>PORTALES</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>TREVIÑO</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>IRUNGARAY</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>DANA</t>
-  </si>
-  <si>
-    <t>COLUNGA</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,24 +49,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,175 +412,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Clave</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apellidos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Teléfono</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JESUS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8110786616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TREVIÑO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8112457895</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DE LA CRUZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LISSET</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8145958874</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PORTALES</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANGEL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8146597752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>8110785612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SUSTAITA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8146953378</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GARZA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SOFIA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8125478963</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>8145237954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MALDONADO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ERIKA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>8124754423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CABALLERO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ERIK</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>8142778594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>8110786646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRUNGARAY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XIMENA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8145789954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SOUTO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>REBECA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8142365974</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
-        <v>8110465523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>IVETTE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>8145796648</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CUELLAR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IVAN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8123659978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
-        <v>8100467945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BANDA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IAN</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>8112465578</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CORONADO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VANESSA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8126495578</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>8110462398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8110457856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8110564233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8175426698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8145796652</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ALMAGUER</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DANA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8175496645</v>
       </c>
     </row>
   </sheetData>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,6 +723,24 @@
         <v>8175496645</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sustai</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Valeri</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7878787878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,6 +741,42 @@
         <v>7878787878</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cano</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Alberto</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8120688543</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Antonio</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>8117539072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,24 @@
         <v>8117539072</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Vianney</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6556566556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
